--- a/drawables/command/2.activity_login.xlsx
+++ b/drawables/command/2.activity_login.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>命名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,86 @@
   </si>
   <si>
     <t>按钮（文字，背景按下和正常）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4A525</t>
+  </si>
+  <si>
+    <t>FFFFFF</t>
+  </si>
+  <si>
+    <t>FFFFFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>060001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24A639</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F49D29</t>
+  </si>
+  <si>
+    <t>030000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA2818</t>
+  </si>
+  <si>
+    <t>CE2B21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFFFFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFFFFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5A5A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮背景透明，以上为按钮边框、按钮文字、按下背景及按下文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码（边框，文字，背景）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DADADA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_verify_activity_login</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +232,27 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,7 +267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,12 +362,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +371,51 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -291,15 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,23 +713,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,17 +737,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -635,7 +763,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -645,13 +773,15 @@
       <c r="C3" s="1">
         <v>40</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -661,13 +791,15 @@
       <c r="C4" s="1">
         <v>40</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -677,13 +809,21 @@
       <c r="C5" s="1">
         <v>80</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -693,13 +833,15 @@
       <c r="C6" s="1">
         <v>80</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -709,85 +851,127 @@
       <c r="C7" s="1">
         <v>80</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="11">
         <v>40</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="D11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="24">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -797,36 +981,36 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/drawables/command/2.activity_login.xlsx
+++ b/drawables/command/2.activity_login.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,21 +713,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -763,7 +765,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -781,7 +783,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -799,7 +801,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -823,7 +825,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -841,7 +843,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -865,7 +867,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -883,7 +885,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -897,7 +899,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
@@ -913,7 +915,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -935,7 +937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>35</v>
       </c>
@@ -953,7 +955,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>40</v>
       </c>
@@ -971,7 +973,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -981,7 +983,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -991,12 +993,12 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1006,7 @@
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>16</v>
       </c>
